--- a/baseline_model/data/Victim_Weight.xlsx
+++ b/baseline_model/data/Victim_Weight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_term\baseline_model\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92056525-A06F-4559-B86D-E9C43ECA8C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BCF15-6514-4366-B2FC-0555881F1CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,19 +409,19 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1"/>
+    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -444,7 +444,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -467,7 +467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -513,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,7 +536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -559,7 +559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
